--- a/pa3/MonthlyIncome/train_impute_MonthlyIncome.xlsx
+++ b/pa3/MonthlyIncome/train_impute_MonthlyIncome.xlsx
@@ -58,11 +58,7 @@
     <t>score</t>
   </si>
   <si>
-    <t>RandomForestRegressor(bootstrap=True, criterion='mse', max_depth=None,
-           max_features='auto', max_leaf_nodes=None, min_samples_leaf=1,
-           min_samples_split=2, min_weight_fraction_leaf=0.0,
-           n_estimators=1000, n_jobs=-1, oob_score=False,
-           random_state=None, verbose=0, warm_start=False)</t>
+    <t>RFR</t>
   </si>
   <si>
     <t>['NumberOfDependents', 'NumberOfOpenCreditLinesAndLoans', 'NumberRealEstateLoansOrLines']</t>
@@ -316,130 +312,130 @@
 149996                             1                                   0.0   
 149998                             0                                   0.0   
 149999                             2                                   0.0   
-        NumberOfDependents  MonthlyIncome_log  \
-0                      2.0           9.118335   
-1                      1.0           7.863651   
-2                      0.0           8.020599   
-3                      0.0           8.101981   
-4                      0.0          11.060196   
-5                      1.0           8.160804   
-7                      0.0           8.160804   
-9                      2.0          10.072597   
-10                     0.0           7.824446   
-11                     2.0           8.779865   
-12                     2.0           9.429877   
-13                     2.0           9.525224   
-14                     0.0           0.000000   
-15                     2.0           9.338118   
-17                     0.0           9.082621   
-18                     2.0           8.095904   
-19                     0.0           5.811141   
-20                     0.0           9.417436   
-21                     2.0           8.006701   
-22                     0.0           7.824446   
-23                     0.0           8.976768   
-24                     0.0           7.790282   
-25                     1.0           8.450412   
-26                     0.0           9.028099   
-27                     1.0           7.824446   
-28                     0.0           8.131825   
-29                     0.0           8.612685   
-30                     0.0           8.343078   
-31                     0.0           6.621406   
-33                     0.0           8.853808   
-...                    ...                ...   
-149961                 0.0           7.026427   
-149962                 1.0           7.987864   
-149964                 0.0           8.702178   
-149966                 0.0           9.680406   
-149968                 6.0           8.434029   
-149969                 2.0           9.595671   
-149970                 2.0           9.648660   
-149971                 0.0           8.517393   
-149972                 1.0           8.845921   
-149973                 1.0           8.612685   
-149974                 0.0           8.517393   
-149978                 0.0           7.824446   
-149979                 0.0           9.071193   
-149980                 0.0           8.617220   
-149981                 4.0           8.832004   
-149982                 3.0           7.923348   
-149983                 0.0           8.517393   
-149985                 0.0           7.576097   
-149986                 1.0           8.517393   
-149987                 0.0           8.086410   
-149988                 0.0           8.924789   
-149989                 3.0           9.130648   
-149990                 2.0           8.374708   
-149991                 0.0           9.241548   
-149993                 0.0           6.710523   
-149994                 0.0           8.131825   
-149995                 0.0           7.650169   
-149996                 2.0           8.627840   
-149998                 0.0           8.651199   
-149999                 0.0           9.006877   
-        RevolvingUtilizationOfUnsecuredLines_log  
-0                                       0.568789  
-1                                       0.671490  
-2                                       0.505721  
-3                                       0.210107  
-4                                       0.645657  
-5                                       0.193244  
-7                                       0.562163  
-9                                       0.173255  
-10                                      0.497270  
-11                                      0.018624  
-12                                      0.010299  
-13                                      0.675326  
-14                                      0.019466  
-15                                      0.437260  
-17                                      0.153823  
-18                                      0.200336  
-19                                      0.471749  
-20                                      0.183091  
-21                                      0.025332  
-22                                      0.693147  
-23                                      0.072717  
-24                                      0.045509  
-25                                      0.330920  
-26                                      0.051108  
-27                                      0.033842  
-28                                      0.373297  
-29                                      0.331456  
-30                                      0.533022  
-31                                      0.693147  
-33                                      0.171318  
-...                                          ...  
-149961                                  0.652381  
-149962                                  0.696010  
-149964                                  0.698600  
-149966                                  0.078746  
-149968                                  0.685027  
-149969                                  0.072818  
-149970                                  0.025131  
-149971                                  0.056381  
-149972                                  0.068848  
-149973                                  0.706258  
-149974                                  0.674332  
-149978                                  0.651093  
-149979                                  0.202705  
-149980                                  0.065454  
-149981                                  0.593334  
-149982                                  0.020828  
-149983                                  0.002482  
-149985                                  0.670088  
-149986                                  0.155380  
-149987                                  0.693147  
-149988                                  0.642933  
-149989                                  0.013267  
-149990                                  0.054032  
-149991                                  0.099041  
-149993                                  0.693147  
-149994                                  0.326236  
-149995                                  0.039868  
-149996                                  0.262168  
-149998                                  0.000000  
-149999                                  0.615339  
+        NumberOfDependents  RevolvingUtilizationOfUnsecuredLines_log  \
+0                      2.0                                  0.568789   
+1                      1.0                                  0.671490   
+2                      0.0                                  0.505721   
+3                      0.0                                  0.210107   
+4                      0.0                                  0.645657   
+5                      1.0                                  0.193244   
+7                      0.0                                  0.562163   
+9                      2.0                                  0.173255   
+10                     0.0                                  0.497270   
+11                     2.0                                  0.018624   
+12                     2.0                                  0.010299   
+13                     2.0                                  0.675326   
+14                     0.0                                  0.019466   
+15                     2.0                                  0.437260   
+17                     0.0                                  0.153823   
+18                     2.0                                  0.200336   
+19                     0.0                                  0.471749   
+20                     0.0                                  0.183091   
+21                     2.0                                  0.025332   
+22                     0.0                                  0.693147   
+23                     0.0                                  0.072717   
+24                     0.0                                  0.045509   
+25                     1.0                                  0.330920   
+26                     0.0                                  0.051108   
+27                     1.0                                  0.033842   
+28                     0.0                                  0.373297   
+29                     0.0                                  0.331456   
+30                     0.0                                  0.533022   
+31                     0.0                                  0.693147   
+33                     0.0                                  0.171318   
+...                    ...                                       ...   
+149961                 0.0                                  0.652381   
+149962                 1.0                                  0.696010   
+149964                 0.0                                  0.698600   
+149966                 0.0                                  0.078746   
+149968                 6.0                                  0.685027   
+149969                 2.0                                  0.072818   
+149970                 2.0                                  0.025131   
+149971                 0.0                                  0.056381   
+149972                 1.0                                  0.068848   
+149973                 1.0                                  0.706258   
+149974                 0.0                                  0.674332   
+149978                 0.0                                  0.651093   
+149979                 0.0                                  0.202705   
+149980                 0.0                                  0.065454   
+149981                 4.0                                  0.593334   
+149982                 3.0                                  0.020828   
+149983                 0.0                                  0.002482   
+149985                 0.0                                  0.670088   
+149986                 1.0                                  0.155380   
+149987                 0.0                                  0.693147   
+149988                 0.0                                  0.642933   
+149989                 3.0                                  0.013267   
+149990                 2.0                                  0.054032   
+149991                 0.0                                  0.099041   
+149993                 0.0                                  0.693147   
+149994                 0.0                                  0.326236   
+149995                 0.0                                  0.039868   
+149996                 2.0                                  0.262168   
+149998                 0.0                                  0.000000   
+149999                 0.0                                  0.615339   
+        MonthlyIncome_log  
+0                9.118335  
+1                7.863651  
+2                8.020599  
+3                8.101981  
+4               11.060196  
+5                8.160804  
+7                8.160804  
+9               10.072597  
+10               7.824446  
+11               8.779865  
+12               9.429877  
+13               9.525224  
+14               0.000000  
+15               9.338118  
+17               9.082621  
+18               8.095904  
+19               5.811141  
+20               9.417436  
+21               8.006701  
+22               7.824446  
+23               8.976768  
+24               7.790282  
+25               8.450412  
+26               9.028099  
+27               7.824446  
+28               8.131825  
+29               8.612685  
+30               8.343078  
+31               6.621406  
+33               8.853808  
+...                   ...  
+149961           7.026427  
+149962           7.987864  
+149964           8.702178  
+149966           9.680406  
+149968           8.434029  
+149969           9.595671  
+149970           9.648660  
+149971           8.517393  
+149972           8.845921  
+149973           8.612685  
+149974           8.517393  
+149978           7.824446  
+149979           9.071193  
+149980           8.617220  
+149981           8.832004  
+149982           7.923348  
+149983           8.517393  
+149985           7.576097  
+149986           8.517393  
+149987           8.086410  
+149988           8.924789  
+149989           9.130648  
+149990           8.374708  
+149991           9.241548  
+149993           6.710523  
+149994           8.131825  
+149995           7.650169  
+149996           8.627840  
+149998           8.651199  
+149999           9.006877  
 [120269 rows x 13 columns]</t>
   </si>
   <si>
@@ -800,7 +796,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,12 +896,12 @@
       <c r="J3" t="s"/>
       <c r="K3" t="s"/>
       <c r="L3" t="n">
-        <v>88862641.66225241</v>
+        <v>413729436.5317599</v>
       </c>
       <c r="M3" t="s"/>
       <c r="N3" t="s"/>
       <c r="O3" t="n">
-        <v>0.02794405725701177</v>
+        <v>0.03250151308519744</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -956,12 +952,12 @@
       <c r="J5" t="s"/>
       <c r="K5" t="s"/>
       <c r="L5" t="n">
-        <v>84010357.58781339</v>
+        <v>412237765.0135434</v>
       </c>
       <c r="M5" t="s"/>
       <c r="N5" t="s"/>
       <c r="O5" t="n">
-        <v>0.03653276600638622</v>
+        <v>0.05653078915907639</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1012,68 +1008,12 @@
       <c r="J7" t="s"/>
       <c r="K7" t="s"/>
       <c r="L7" t="n">
-        <v>84215829.71141605</v>
+        <v>412646135.8887087</v>
       </c>
       <c r="M7" t="s"/>
       <c r="N7" t="s"/>
       <c r="O7" t="n">
-        <v>0.03828121096976467</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
-      <c r="D8" t="s"/>
-      <c r="E8" t="s"/>
-      <c r="F8" t="s"/>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s"/>
-      <c r="J8" t="s"/>
-      <c r="K8" t="s"/>
-      <c r="L8" t="s"/>
-      <c r="M8" t="s"/>
-      <c r="N8" t="s"/>
-      <c r="O8" t="s"/>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="n">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" t="s"/>
-      <c r="F9" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" t="s"/>
-      <c r="K9" t="s"/>
-      <c r="L9" t="n">
-        <v>84872882.55012794</v>
-      </c>
-      <c r="M9" t="s"/>
-      <c r="N9" t="s"/>
-      <c r="O9" t="n">
-        <v>0.03877595453349136</v>
+        <v>0.05775605381617555</v>
       </c>
     </row>
   </sheetData>
